--- a/Murnagghan curve.xlsx
+++ b/Murnagghan curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaom\Desktop\understanding_trends_in_catalytic_activity_for_hydrogen_evolution\Catalytic_Activity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6D94D-07C7-4783-9641-0E5F82159AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B58DDB-C4CA-4ECE-9793-85115A7C2532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Au" sheetId="3" r:id="rId2"/>
     <sheet name="Mo" sheetId="4" r:id="rId3"/>
     <sheet name="Pt" sheetId="1" r:id="rId4"/>
+    <sheet name="Summary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Lattice (A)</t>
   </si>
@@ -52,6 +53,33 @@
   <si>
     <t>Lattice (Bohr)</t>
   </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Experimental Equilibrium Lattice Vector/Å</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Total Energy/eV</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>E/Hartree</t>
+  </si>
 </sst>
 </file>
 
@@ -62,7 +90,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,13 +98,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -113,6 +154,33 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -264,13 +332,62 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ag!$C$3:$C$17</c:f>
+              <c:f>Ag!$D$3:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-296.08573961012991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-296.13263200951877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-296.16904929650889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-296.19646910244177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-296.21619832787502</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-296.22939799033333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-296.23701608022685</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-296.23986293319876</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-296.23866876693768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-296.23431096562729</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-296.22700147019003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-296.21740960019707</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-296.2059096264407</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-296.19285034886303</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-296.17855664112921</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-299D-4E69-96BD-9025A6FFA199}"/>
+              <c16:uniqueId val="{00000000-B363-4938-BE98-2EF12CB30309}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -282,11 +399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="60403823"/>
-        <c:axId val="60402991"/>
+        <c:axId val="908673471"/>
+        <c:axId val="908672639"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="60403823"/>
+        <c:axId val="908673471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -343,12 +460,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60402991"/>
+        <c:crossAx val="908672639"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60402991"/>
+        <c:axId val="908672639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -405,7 +522,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60403823"/>
+        <c:crossAx val="908673471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -533,7 +650,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ag!$A$3:$A$17</c:f>
+              <c:f>Au!$A$3:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="15"/>
@@ -587,54 +704,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ag!$D$3:$D$17</c:f>
+              <c:f>Au!$C$3:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>-296.08573961012991</c:v>
+                  <c:v>-3615.4235815255001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-296.13263200951877</c:v>
+                  <c:v>-3616.5750413749001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-296.16904929650889</c:v>
+                  <c:v>-3617.4853636411999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-296.19646910244177</c:v>
+                  <c:v>-3618.1878462625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-296.21619832787502</c:v>
+                  <c:v>-3618.7122569014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-296.22939799033333</c:v>
+                  <c:v>-3619.0852600805001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-296.23701608022685</c:v>
+                  <c:v>-3619.3292693895</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-296.23986293319876</c:v>
+                  <c:v>-3619.4629467264999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-296.23866876693768</c:v>
+                  <c:v>-3619.5028991413001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-296.23431096562729</c:v>
+                  <c:v>-3619.4626164533001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-296.22700147019003</c:v>
+                  <c:v>-3619.3571406342999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-296.21740960019707</c:v>
+                  <c:v>-3619.1975690159002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-296.2059096264407</c:v>
+                  <c:v>-3618.9950188080002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-296.19285034886303</c:v>
+                  <c:v>-3618.7567796185999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-296.17855664112921</c:v>
+                  <c:v>-3618.4903392381002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,7 +759,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F70A-4DD8-BE7E-E539CD23A413}"/>
+              <c16:uniqueId val="{00000000-7F05-4B56-AE9C-492E45DF4839}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -654,11 +771,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="169132511"/>
-        <c:axId val="169133343"/>
+        <c:axId val="839819263"/>
+        <c:axId val="839820095"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169132511"/>
+        <c:axId val="839819263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,12 +832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169133343"/>
+        <c:crossAx val="839820095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169133343"/>
+        <c:axId val="839820095"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,7 +894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="169132511"/>
+        <c:crossAx val="839819263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -791,13 +908,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -834,6 +944,378 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Mo!$A$3:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Mo!$C$3:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-3709.2992681786</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3710.6079563069002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3711.6369735196999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3712.4244768127</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3713.0007804993002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3713.3948499343001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3713.6308429474002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3713.7288848189</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3713.7080681582001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3713.5841010723998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3713.3721782859998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3713.0861402824999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3712.7381262215999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3712.3386085296002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3711.8969035925002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF0E-4444-A0C0-8DE8053E9E9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841404319"/>
+        <c:axId val="841402655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841404319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841402655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="841402655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841404319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1325,6 +1807,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2873,27 +3395,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>60325</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>365125</xdr:colOff>
+      <xdr:colOff>155575</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507E3959-5802-178A-D7E3-2FF3CF258854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BC3954-75E9-A9EE-18FE-A296471BA784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2911,25 +3949,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1508125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5E93FA-28E2-C8C9-7967-8DF81C13F5C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{565AAB74-294B-CBD7-2705-B5649C2F6F97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +3984,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2950,7 +3993,48 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA31C63D-0910-0FA0-B69F-48B47075A1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3257,14 +4341,14 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="1" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -3403,17 +4487,17 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>4.1500000000000004</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>7.8423628526900009</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>-4030.5501328667001</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="9">
         <f t="shared" si="1"/>
         <v>-296.23986293319876</v>
       </c>
@@ -3549,13 +4633,13 @@
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="21.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -3703,17 +4787,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11" s="8">
         <v>4.2</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>7.9368491521199998</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="9">
         <v>-3619.5028991413001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="13">
         <f t="shared" si="1"/>
         <v>-266.02845948607779</v>
       </c>
@@ -3816,15 +4900,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55DC107-63E7-45F6-B9C5-16C8FA665A75}">
-  <dimension ref="A2:D17"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3963,17 +5048,17 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+      <c r="A10" s="10">
         <v>3.15</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>5.9526368640899996</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="10">
         <v>-3713.7288848189</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="12">
         <f t="shared" si="1"/>
         <v>-272.95393917537876</v>
       </c>
@@ -4090,8 +5175,15 @@
         <v>-272.81929108776922</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="5">
+        <f>MIN(C4:C18)</f>
+        <v>-3713.7288848189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4100,7 +5192,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4240,17 +5332,17 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>3.95</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>7.4644176549700001</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="9">
         <v>-13074.765201398501</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="13">
         <v>-960.97703178799998</v>
       </c>
       <c r="F10" s="3"/>
@@ -4371,4 +5463,94 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04C6A18-1304-485A-84EF-0FFFFD6DF5A2}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="21.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08984375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C2" s="14">
+        <v>-4030.5501328667001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-3619.5028991413001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-3713.7288848189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-13074.765201398501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1.16485166853342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>